--- a/src/main/resources/jxls/api_data.xlsx
+++ b/src/main/resources/jxls/api_data.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDBF274-C0AD-4A1A-9DCB-D6DE793C216C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Thống kê" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A4" authorId="0" shapeId="0">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="0" shapeId="0">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -101,36 +115,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Tổng Doanh Thu Tháng Này</t>
-  </si>
-  <si>
-    <t>Tổng Doanh Thu Hôm Nay</t>
-  </si>
-  <si>
-    <t>Tổng Sản Phẩm Bán Ra Tháng Này</t>
-  </si>
-  <si>
-    <t>${data2.totalBill}  Đơn Hàng</t>
-  </si>
-  <si>
-    <t>${data.totalBillToday}  Đơn Hàng</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ${data2.totalProduct}  Sản phẩm</t>
-  </si>
-  <si>
-    <t>THỐNG KÊ DOANH THU, HOÁ ĐƠN, SẢN PHẨM BÁN RA</t>
-  </si>
-  <si>
     <t>${data2.totalBillAmount}</t>
   </si>
   <si>
     <t>${data.totalBillAmountToday}</t>
   </si>
   <si>
-    <t>THỐNG KÊ HOÁ ĐƠN ĐÃ HUỶ</t>
-  </si>
-  <si>
     <t>Tên Nhân Viên</t>
   </si>
   <si>
@@ -170,27 +160,51 @@
     <t>${data3.lastModifiedDate}</t>
   </si>
   <si>
-    <t>Tổng Đơn Tháng Này</t>
-  </si>
-  <si>
-    <t>Tổng Đơn  Hôm Nay</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
     <t>${data3.note}</t>
+  </si>
+  <si>
+    <t>Doanh thu tháng</t>
+  </si>
+  <si>
+    <t>THỐNG KÊ CỬA HÀNG BEE SHOES</t>
+  </si>
+  <si>
+    <t>THỐNG KÊ CÁC HOÁ ĐƠN ĐÃ HUỶ</t>
+  </si>
+  <si>
+    <t>Số lượng đơn hàng tháng</t>
+  </si>
+  <si>
+    <t>Đơn hàng ngày hôm nay</t>
+  </si>
+  <si>
+    <t>Doanh thu hôm nay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${data2.totalBill} </t>
+  </si>
+  <si>
+    <t>${data.totalBillToday}</t>
+  </si>
+  <si>
+    <t>Sản phẩm bán ra trong tháng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ${data2.totalProduct} </t>
+  </si>
+  <si>
+    <t>Lý do hủy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="#,##0\ [$VND]"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="#,##0\ [$VND]"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,57 +242,59 @@
     </font>
     <font>
       <b/>
+      <sz val="20"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF36548A"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFC00000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF002060"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FFC00000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
-      <color rgb="FF002060"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -304,24 +320,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -366,91 +382,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -459,6 +484,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF36548A"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -471,9 +501,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -511,9 +541,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,7 +578,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,7 +613,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -756,193 +786,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="52.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
+    <col min="1" max="1" width="2.53515625" customWidth="1"/>
+    <col min="2" max="2" width="19.84375" customWidth="1"/>
+    <col min="3" max="3" width="35.53515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.53515625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="42.3828125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.84375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="52.3046875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.15234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+    <row r="1" spans="1:12" ht="22.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" ht="64.3" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="36.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" ht="29.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="19"/>
-    </row>
-    <row r="4" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="D8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="19"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="22" t="s">
+      <c r="G8" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="H8" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="18.899999999999999" x14ac:dyDescent="0.45">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="F9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="21">
+      <c r="G9" s="9">
         <f>SUM(G8)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E19" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.45" x14ac:dyDescent="0.4">
+      <c r="D10" s="6"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.4">
+      <c r="E19" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="B6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
